--- a/cat_vs_s_tier.xlsx
+++ b/cat_vs_s_tier.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Games\WoW\feral-dps-scale\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3132926-85D9-4A90-90E8-321619409941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84DFFD98-6E2E-4917-A590-E6252FC12A10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6036" yWindow="1836" windowWidth="37128" windowHeight="16644" xr2:uid="{5E2C6A9E-6D85-4C03-B218-019899125885}"/>
+    <workbookView xWindow="5520" yWindow="900" windowWidth="34440" windowHeight="16644" xr2:uid="{5E2C6A9E-6D85-4C03-B218-019899125885}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
     <t>邪迪凯</t>
   </si>
   <si>
-    <t>猫德(实战)</t>
+    <t>猫德</t>
   </si>
 </sst>
 </file>
@@ -156,7 +156,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -168,6 +168,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -487,7 +490,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -541,7 +544,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="4">
